--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,21 @@
           <t>('Close', 'NVDA')</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>('Date', '')</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA')</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA')</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -482,6 +497,9 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -496,6 +514,9 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -510,6 +531,9 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -524,6 +548,9 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -538,6 +565,9 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -552,6 +582,9 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -566,6 +599,9 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -580,6 +616,9 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -594,6 +633,9 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -610,6 +652,9 @@
       <c r="F11" t="n">
         <v>167.0200042724609</v>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,15 +470,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -500,6 +515,9 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -517,6 +535,9 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -534,6 +555,9 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -551,6 +575,9 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -568,6 +595,9 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -585,6 +615,9 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -602,6 +635,9 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -619,6 +655,9 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -636,6 +675,9 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -655,6 +697,9 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,15 +485,30 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -518,6 +533,9 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -538,6 +556,9 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -558,6 +579,9 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -578,6 +602,9 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -598,6 +625,9 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -618,6 +648,9 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -638,6 +671,9 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -658,6 +694,9 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -678,6 +717,9 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -700,6 +742,9 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,15 +500,30 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -536,6 +551,9 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -559,6 +577,9 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -582,6 +603,9 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -605,6 +629,9 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -628,6 +655,9 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -651,6 +681,9 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -674,6 +707,9 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -697,6 +733,9 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -720,6 +759,9 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -745,6 +787,9 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,15 +515,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -554,6 +569,9 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -580,6 +598,9 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -606,6 +627,9 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -632,6 +656,9 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -658,6 +685,9 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -684,6 +714,9 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,6 +743,9 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -736,6 +772,9 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,6 +801,9 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -790,6 +832,9 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,15 +530,30 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').5</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').5</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').5</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -572,6 +587,9 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -601,6 +619,9 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -630,6 +651,9 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -659,6 +683,9 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -688,6 +715,9 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -717,6 +747,9 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -746,6 +779,9 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -775,6 +811,9 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -804,6 +843,9 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -835,6 +877,9 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,15 +545,30 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').6</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').6</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').6</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -590,6 +605,9 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -622,6 +640,9 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,6 +675,9 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,6 +710,9 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -718,6 +745,9 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -750,6 +780,9 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -782,6 +815,9 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -814,6 +850,9 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -846,6 +885,9 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -880,6 +922,9 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,15 +560,30 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').7</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').7</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').7</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -608,6 +623,9 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -643,6 +661,9 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,6 +699,9 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -713,6 +737,9 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -748,6 +775,9 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -783,6 +813,9 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -818,6 +851,9 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -853,6 +889,9 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -888,6 +927,9 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -925,6 +967,9 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,15 +575,30 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').8</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').8</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').8</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -626,6 +641,9 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,6 +682,9 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -702,6 +723,9 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -740,6 +764,9 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -778,6 +805,9 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,6 +846,9 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -854,6 +887,9 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,6 +928,9 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,6 +969,9 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -970,6 +1012,9 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,15 +590,30 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').9</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').9</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').9</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -644,6 +659,9 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -685,6 +703,9 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -726,6 +747,9 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -767,6 +791,9 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -808,6 +835,9 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -849,6 +879,9 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -890,6 +923,9 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -931,6 +967,9 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -972,6 +1011,9 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1015,6 +1057,9 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,15 +605,30 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').10</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').10</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -662,6 +677,9 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -706,6 +724,9 @@
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -750,6 +771,9 @@
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -794,6 +818,9 @@
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -838,6 +865,9 @@
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -882,6 +912,9 @@
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,6 +959,9 @@
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -970,6 +1006,9 @@
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1014,6 +1053,9 @@
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1060,6 +1102,9 @@
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,15 +620,30 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').11</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').11</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').11</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -680,6 +695,9 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -727,6 +745,9 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,6 +795,9 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -821,6 +845,9 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -868,6 +895,9 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -915,6 +945,9 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -962,6 +995,9 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1009,6 +1045,9 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1056,6 +1095,9 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1105,6 +1147,9 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,15 +635,30 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').12</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').12</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').12</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -698,6 +713,9 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -748,6 +766,9 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -798,6 +819,9 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -848,6 +872,9 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,6 +925,9 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -948,6 +978,9 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -998,6 +1031,9 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1048,6 +1084,9 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1098,6 +1137,9 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1150,6 +1192,9 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,15 +650,30 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').13</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').13</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').13</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -716,6 +731,9 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -769,6 +787,9 @@
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,6 +843,9 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -875,6 +899,9 @@
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -928,6 +955,9 @@
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -981,6 +1011,9 @@
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1034,6 +1067,9 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1087,6 +1123,9 @@
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1140,6 +1179,9 @@
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1195,6 +1237,9 @@
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,15 +665,30 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').14</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').14</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').14</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -734,6 +749,9 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -790,6 +808,9 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,6 +867,9 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -902,6 +926,9 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -958,6 +985,9 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1014,6 +1044,9 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1070,6 +1103,9 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1126,6 +1162,9 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1182,6 +1221,9 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1240,6 +1282,9 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,15 +680,30 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').15</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').15</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').15</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -752,6 +767,9 @@
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -811,6 +829,9 @@
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,6 +891,9 @@
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -929,6 +953,9 @@
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -988,6 +1015,9 @@
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1047,6 +1077,9 @@
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1106,6 +1139,9 @@
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1165,6 +1201,9 @@
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1224,6 +1263,9 @@
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1285,6 +1327,9 @@
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
       <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,15 +695,30 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').16</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').16</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').16</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -770,6 +785,9 @@
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,6 +850,9 @@
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -894,6 +915,9 @@
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -956,6 +980,9 @@
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1018,6 +1045,9 @@
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1080,6 +1110,9 @@
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1142,6 +1175,9 @@
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1204,6 +1240,9 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1266,6 +1305,9 @@
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1330,6 +1372,9 @@
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,15 +710,30 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').17</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').17</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').17</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -788,6 +803,9 @@
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -853,6 +871,9 @@
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -918,6 +939,9 @@
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -983,6 +1007,9 @@
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1048,6 +1075,9 @@
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1113,6 +1143,9 @@
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1178,6 +1211,9 @@
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1243,6 +1279,9 @@
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1308,6 +1347,9 @@
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1375,6 +1417,9 @@
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH11"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,15 +725,30 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').18</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').18</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').18</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -806,6 +821,9 @@
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -874,6 +892,9 @@
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -942,6 +963,9 @@
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1010,6 +1034,9 @@
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1078,6 +1105,9 @@
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1146,6 +1176,9 @@
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1214,6 +1247,9 @@
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1282,6 +1318,9 @@
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1350,6 +1389,9 @@
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1420,6 +1462,9 @@
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -740,15 +740,30 @@
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').19</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').19</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').19</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -824,6 +839,9 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -895,6 +913,9 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -966,6 +987,9 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1037,6 +1061,9 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1108,6 +1135,9 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1179,6 +1209,9 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1250,6 +1283,9 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1321,6 +1357,9 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1392,6 +1431,9 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1465,6 +1507,9 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,15 +755,30 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').20</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').20</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').20</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -842,6 +857,9 @@
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -916,6 +934,9 @@
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -990,6 +1011,9 @@
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1064,6 +1088,9 @@
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1138,6 +1165,9 @@
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1212,6 +1242,9 @@
       <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1286,6 +1319,9 @@
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1360,6 +1396,9 @@
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="inlineStr"/>
       <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1434,6 +1473,9 @@
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="inlineStr"/>
       <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1510,6 +1552,9 @@
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ11"/>
+  <dimension ref="A1:BT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +770,30 @@
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').21</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').21</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').21</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -860,6 +875,9 @@
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -937,6 +955,9 @@
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1014,6 +1035,9 @@
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1091,6 +1115,9 @@
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1168,6 +1195,9 @@
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1245,6 +1275,9 @@
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1322,6 +1355,9 @@
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1399,6 +1435,9 @@
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1476,6 +1515,9 @@
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1555,6 +1597,9 @@
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT11"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,15 +785,30 @@
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').22</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').22</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').22</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -878,6 +893,9 @@
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -958,6 +976,9 @@
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1038,6 +1059,9 @@
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1118,6 +1142,9 @@
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1198,6 +1225,9 @@
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1278,6 +1308,9 @@
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1358,6 +1391,9 @@
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1438,6 +1474,9 @@
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1518,6 +1557,9 @@
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1600,6 +1642,9 @@
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:BZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,15 +800,30 @@
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').23</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').23</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').23</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -896,6 +911,9 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -979,6 +997,9 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1062,6 +1083,9 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1145,6 +1169,9 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1228,6 +1255,9 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1311,6 +1341,9 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1394,6 +1427,9 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1477,6 +1513,9 @@
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1560,6 +1599,9 @@
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1645,6 +1687,9 @@
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:CC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,15 +815,30 @@
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').24</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').24</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').24</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -914,6 +929,9 @@
       <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1000,6 +1018,9 @@
       <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1086,6 +1107,9 @@
       <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1172,6 +1196,9 @@
       <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1258,6 +1285,9 @@
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1344,6 +1374,9 @@
       <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1430,6 +1463,9 @@
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1516,6 +1552,9 @@
       <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1602,6 +1641,9 @@
       <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1690,6 +1732,9 @@
       <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:CF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,15 +830,30 @@
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').25</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').25</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').25</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -932,6 +947,9 @@
       <c r="CA2" t="inlineStr"/>
       <c r="CB2" t="inlineStr"/>
       <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1021,6 +1039,9 @@
       <c r="CA3" t="inlineStr"/>
       <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1110,6 +1131,9 @@
       <c r="CA4" t="inlineStr"/>
       <c r="CB4" t="inlineStr"/>
       <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1199,6 +1223,9 @@
       <c r="CA5" t="inlineStr"/>
       <c r="CB5" t="inlineStr"/>
       <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1288,6 +1315,9 @@
       <c r="CA6" t="inlineStr"/>
       <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1377,6 +1407,9 @@
       <c r="CA7" t="inlineStr"/>
       <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1466,6 +1499,9 @@
       <c r="CA8" t="inlineStr"/>
       <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1555,6 +1591,9 @@
       <c r="CA9" t="inlineStr"/>
       <c r="CB9" t="inlineStr"/>
       <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1644,6 +1683,9 @@
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1735,6 +1777,9 @@
       <c r="CA11" t="inlineStr"/>
       <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF11"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,15 +845,30 @@
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').26</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').26</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').26</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -950,6 +965,9 @@
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1042,6 +1060,9 @@
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1134,6 +1155,9 @@
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1226,6 +1250,9 @@
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
       <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1318,6 +1345,9 @@
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1410,6 +1440,9 @@
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1502,6 +1535,9 @@
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1594,6 +1630,9 @@
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1686,6 +1725,9 @@
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1780,6 +1822,9 @@
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
       <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI11"/>
+  <dimension ref="A1:CL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,15 +860,30 @@
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').27</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').27</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').27</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -968,6 +983,9 @@
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1063,6 +1081,9 @@
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="inlineStr"/>
       <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1158,6 +1179,9 @@
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1253,6 +1277,9 @@
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="inlineStr"/>
       <c r="CI5" t="inlineStr"/>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1348,6 +1375,9 @@
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1443,6 +1473,9 @@
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="inlineStr"/>
       <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1538,6 +1571,9 @@
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="inlineStr"/>
       <c r="CI8" t="inlineStr"/>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1633,6 +1669,9 @@
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="inlineStr"/>
       <c r="CI9" t="inlineStr"/>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1728,6 +1767,9 @@
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="inlineStr"/>
       <c r="CI10" t="inlineStr"/>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1825,6 +1867,9 @@
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="inlineStr"/>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL11"/>
+  <dimension ref="A1:CO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,15 +875,30 @@
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').28</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').28</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').28</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -986,6 +1001,9 @@
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1084,6 +1102,9 @@
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
+      <c r="CM3" t="inlineStr"/>
+      <c r="CN3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1182,6 +1203,9 @@
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
+      <c r="CM4" t="inlineStr"/>
+      <c r="CN4" t="inlineStr"/>
+      <c r="CO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1280,6 +1304,9 @@
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr"/>
+      <c r="CO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1378,6 +1405,9 @@
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1476,6 +1506,9 @@
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
       <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1574,6 +1607,9 @@
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
       <c r="CL8" t="inlineStr"/>
+      <c r="CM8" t="inlineStr"/>
+      <c r="CN8" t="inlineStr"/>
+      <c r="CO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1672,6 +1708,9 @@
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
+      <c r="CM9" t="inlineStr"/>
+      <c r="CN9" t="inlineStr"/>
+      <c r="CO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1770,6 +1809,9 @@
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
+      <c r="CM10" t="inlineStr"/>
+      <c r="CN10" t="inlineStr"/>
+      <c r="CO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1870,6 +1912,9 @@
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
+      <c r="CM11" t="inlineStr"/>
+      <c r="CN11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,15 +890,30 @@
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').29</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').29</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').29</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1004,6 +1019,9 @@
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1105,6 +1123,9 @@
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
       <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1206,6 +1227,9 @@
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1307,6 +1331,9 @@
       <c r="CM5" t="inlineStr"/>
       <c r="CN5" t="inlineStr"/>
       <c r="CO5" t="inlineStr"/>
+      <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1408,6 +1435,9 @@
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
       <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1509,6 +1539,9 @@
       <c r="CM7" t="inlineStr"/>
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr"/>
+      <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr"/>
+      <c r="CR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1610,6 +1643,9 @@
       <c r="CM8" t="inlineStr"/>
       <c r="CN8" t="inlineStr"/>
       <c r="CO8" t="inlineStr"/>
+      <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1711,6 +1747,9 @@
       <c r="CM9" t="inlineStr"/>
       <c r="CN9" t="inlineStr"/>
       <c r="CO9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr"/>
+      <c r="CR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1812,6 +1851,9 @@
       <c r="CM10" t="inlineStr"/>
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr"/>
+      <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr"/>
+      <c r="CR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1915,6 +1957,9 @@
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
       <c r="CO11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR11"/>
+  <dimension ref="A1:CU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,15 +905,30 @@
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').30</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').30</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').30</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1022,6 +1037,9 @@
       <c r="CP2" t="inlineStr"/>
       <c r="CQ2" t="inlineStr"/>
       <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1126,6 +1144,9 @@
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1230,6 +1251,9 @@
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1334,6 +1358,9 @@
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
+      <c r="CT5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1438,6 +1465,9 @@
       <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
       <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1542,6 +1572,9 @@
       <c r="CP7" t="inlineStr"/>
       <c r="CQ7" t="inlineStr"/>
       <c r="CR7" t="inlineStr"/>
+      <c r="CS7" t="inlineStr"/>
+      <c r="CT7" t="inlineStr"/>
+      <c r="CU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1646,6 +1679,9 @@
       <c r="CP8" t="inlineStr"/>
       <c r="CQ8" t="inlineStr"/>
       <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
+      <c r="CT8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1750,6 +1786,9 @@
       <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
+      <c r="CS9" t="inlineStr"/>
+      <c r="CT9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1854,6 +1893,9 @@
       <c r="CP10" t="inlineStr"/>
       <c r="CQ10" t="inlineStr"/>
       <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
+      <c r="CT10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1960,6 +2002,9 @@
       <c r="CP11" t="inlineStr"/>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
+      <c r="CT11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU11"/>
+  <dimension ref="A1:CX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,15 +920,30 @@
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').31</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').31</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').31</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1040,6 +1055,9 @@
       <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" t="inlineStr"/>
+      <c r="CX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1147,6 +1165,9 @@
       <c r="CS3" t="inlineStr"/>
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1254,6 +1275,9 @@
       <c r="CS4" t="inlineStr"/>
       <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1361,6 +1385,9 @@
       <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr"/>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1468,6 +1495,9 @@
       <c r="CS6" t="inlineStr"/>
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1575,6 +1605,9 @@
       <c r="CS7" t="inlineStr"/>
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
+      <c r="CV7" t="inlineStr"/>
+      <c r="CW7" t="inlineStr"/>
+      <c r="CX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1682,6 +1715,9 @@
       <c r="CS8" t="inlineStr"/>
       <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
+      <c r="CV8" t="inlineStr"/>
+      <c r="CW8" t="inlineStr"/>
+      <c r="CX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1789,6 +1825,9 @@
       <c r="CS9" t="inlineStr"/>
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
+      <c r="CW9" t="inlineStr"/>
+      <c r="CX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1896,6 +1935,9 @@
       <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
+      <c r="CV10" t="inlineStr"/>
+      <c r="CW10" t="inlineStr"/>
+      <c r="CX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2005,6 +2047,9 @@
       <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr"/>
       <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
+      <c r="CW11" t="inlineStr"/>
+      <c r="CX11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX11"/>
+  <dimension ref="A1:DA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,15 +935,30 @@
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').32</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').32</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').32</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1058,6 +1073,9 @@
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="inlineStr"/>
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1168,6 +1186,9 @@
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1278,6 +1299,9 @@
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1388,6 +1412,9 @@
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="inlineStr"/>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1498,6 +1525,9 @@
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1608,6 +1638,9 @@
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="inlineStr"/>
+      <c r="CY7" t="inlineStr"/>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1718,6 +1751,9 @@
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="inlineStr"/>
+      <c r="CY8" t="inlineStr"/>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1828,6 +1864,9 @@
       <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="inlineStr"/>
+      <c r="CY9" t="inlineStr"/>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1938,6 +1977,9 @@
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="inlineStr"/>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2050,6 +2092,9 @@
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="inlineStr"/>
+      <c r="CY11" t="inlineStr"/>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA11"/>
+  <dimension ref="A1:DD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,15 +950,30 @@
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').33</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').33</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').33</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1076,6 +1091,9 @@
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
+      <c r="DB2" t="inlineStr"/>
+      <c r="DC2" t="inlineStr"/>
+      <c r="DD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1189,6 +1207,9 @@
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr"/>
+      <c r="DD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1302,6 +1323,9 @@
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
       <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr"/>
+      <c r="DC4" t="inlineStr"/>
+      <c r="DD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1415,6 +1439,9 @@
       <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="inlineStr"/>
       <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr"/>
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1528,6 +1555,9 @@
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
       <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1641,6 +1671,9 @@
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
       <c r="DA7" t="inlineStr"/>
+      <c r="DB7" t="inlineStr"/>
+      <c r="DC7" t="inlineStr"/>
+      <c r="DD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1754,6 +1787,9 @@
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
       <c r="DA8" t="inlineStr"/>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1867,6 +1903,9 @@
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
       <c r="DA9" t="inlineStr"/>
+      <c r="DB9" t="inlineStr"/>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1980,6 +2019,9 @@
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
       <c r="DA10" t="inlineStr"/>
+      <c r="DB10" t="inlineStr"/>
+      <c r="DC10" t="inlineStr"/>
+      <c r="DD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2095,6 +2137,9 @@
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
+      <c r="DB11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr"/>
+      <c r="DD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD11"/>
+  <dimension ref="A1:DG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,15 +965,30 @@
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').34</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').34</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').34</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1094,6 +1109,9 @@
       <c r="DB2" t="inlineStr"/>
       <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr"/>
+      <c r="DE2" t="inlineStr"/>
+      <c r="DF2" t="inlineStr"/>
+      <c r="DG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1210,6 +1228,9 @@
       <c r="DB3" t="inlineStr"/>
       <c r="DC3" t="inlineStr"/>
       <c r="DD3" t="inlineStr"/>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr"/>
+      <c r="DG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1326,6 +1347,9 @@
       <c r="DB4" t="inlineStr"/>
       <c r="DC4" t="inlineStr"/>
       <c r="DD4" t="inlineStr"/>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr"/>
+      <c r="DG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1442,6 +1466,9 @@
       <c r="DB5" t="inlineStr"/>
       <c r="DC5" t="inlineStr"/>
       <c r="DD5" t="inlineStr"/>
+      <c r="DE5" t="inlineStr"/>
+      <c r="DF5" t="inlineStr"/>
+      <c r="DG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1558,6 +1585,9 @@
       <c r="DB6" t="inlineStr"/>
       <c r="DC6" t="inlineStr"/>
       <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1674,6 +1704,9 @@
       <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="inlineStr"/>
       <c r="DD7" t="inlineStr"/>
+      <c r="DE7" t="inlineStr"/>
+      <c r="DF7" t="inlineStr"/>
+      <c r="DG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1790,6 +1823,9 @@
       <c r="DB8" t="inlineStr"/>
       <c r="DC8" t="inlineStr"/>
       <c r="DD8" t="inlineStr"/>
+      <c r="DE8" t="inlineStr"/>
+      <c r="DF8" t="inlineStr"/>
+      <c r="DG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1906,6 +1942,9 @@
       <c r="DB9" t="inlineStr"/>
       <c r="DC9" t="inlineStr"/>
       <c r="DD9" t="inlineStr"/>
+      <c r="DE9" t="inlineStr"/>
+      <c r="DF9" t="inlineStr"/>
+      <c r="DG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2022,6 +2061,9 @@
       <c r="DB10" t="inlineStr"/>
       <c r="DC10" t="inlineStr"/>
       <c r="DD10" t="inlineStr"/>
+      <c r="DE10" t="inlineStr"/>
+      <c r="DF10" t="inlineStr"/>
+      <c r="DG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2140,6 +2182,9 @@
       <c r="DB11" t="inlineStr"/>
       <c r="DC11" t="inlineStr"/>
       <c r="DD11" t="inlineStr"/>
+      <c r="DE11" t="inlineStr"/>
+      <c r="DF11" t="inlineStr"/>
+      <c r="DG11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG11"/>
+  <dimension ref="A1:DJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,15 +980,30 @@
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').35</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').35</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').35</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1112,6 +1127,9 @@
       <c r="DE2" t="inlineStr"/>
       <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="inlineStr"/>
+      <c r="DH2" t="inlineStr"/>
+      <c r="DI2" t="inlineStr"/>
+      <c r="DJ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1231,6 +1249,9 @@
       <c r="DE3" t="inlineStr"/>
       <c r="DF3" t="inlineStr"/>
       <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr"/>
+      <c r="DI3" t="inlineStr"/>
+      <c r="DJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1350,6 +1371,9 @@
       <c r="DE4" t="inlineStr"/>
       <c r="DF4" t="inlineStr"/>
       <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr"/>
+      <c r="DI4" t="inlineStr"/>
+      <c r="DJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1469,6 +1493,9 @@
       <c r="DE5" t="inlineStr"/>
       <c r="DF5" t="inlineStr"/>
       <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr"/>
+      <c r="DI5" t="inlineStr"/>
+      <c r="DJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1588,6 +1615,9 @@
       <c r="DE6" t="inlineStr"/>
       <c r="DF6" t="inlineStr"/>
       <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1707,6 +1737,9 @@
       <c r="DE7" t="inlineStr"/>
       <c r="DF7" t="inlineStr"/>
       <c r="DG7" t="inlineStr"/>
+      <c r="DH7" t="inlineStr"/>
+      <c r="DI7" t="inlineStr"/>
+      <c r="DJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1826,6 +1859,9 @@
       <c r="DE8" t="inlineStr"/>
       <c r="DF8" t="inlineStr"/>
       <c r="DG8" t="inlineStr"/>
+      <c r="DH8" t="inlineStr"/>
+      <c r="DI8" t="inlineStr"/>
+      <c r="DJ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1945,6 +1981,9 @@
       <c r="DE9" t="inlineStr"/>
       <c r="DF9" t="inlineStr"/>
       <c r="DG9" t="inlineStr"/>
+      <c r="DH9" t="inlineStr"/>
+      <c r="DI9" t="inlineStr"/>
+      <c r="DJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2064,6 +2103,9 @@
       <c r="DE10" t="inlineStr"/>
       <c r="DF10" t="inlineStr"/>
       <c r="DG10" t="inlineStr"/>
+      <c r="DH10" t="inlineStr"/>
+      <c r="DI10" t="inlineStr"/>
+      <c r="DJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2185,6 +2227,9 @@
       <c r="DE11" t="inlineStr"/>
       <c r="DF11" t="inlineStr"/>
       <c r="DG11" t="inlineStr"/>
+      <c r="DH11" t="inlineStr"/>
+      <c r="DI11" t="inlineStr"/>
+      <c r="DJ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ11"/>
+  <dimension ref="A1:DM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,15 +995,30 @@
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').36</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').36</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').36</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1130,6 +1145,9 @@
       <c r="DH2" t="inlineStr"/>
       <c r="DI2" t="inlineStr"/>
       <c r="DJ2" t="inlineStr"/>
+      <c r="DK2" t="inlineStr"/>
+      <c r="DL2" t="inlineStr"/>
+      <c r="DM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1252,6 +1270,9 @@
       <c r="DH3" t="inlineStr"/>
       <c r="DI3" t="inlineStr"/>
       <c r="DJ3" t="inlineStr"/>
+      <c r="DK3" t="inlineStr"/>
+      <c r="DL3" t="inlineStr"/>
+      <c r="DM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1374,6 +1395,9 @@
       <c r="DH4" t="inlineStr"/>
       <c r="DI4" t="inlineStr"/>
       <c r="DJ4" t="inlineStr"/>
+      <c r="DK4" t="inlineStr"/>
+      <c r="DL4" t="inlineStr"/>
+      <c r="DM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1496,6 +1520,9 @@
       <c r="DH5" t="inlineStr"/>
       <c r="DI5" t="inlineStr"/>
       <c r="DJ5" t="inlineStr"/>
+      <c r="DK5" t="inlineStr"/>
+      <c r="DL5" t="inlineStr"/>
+      <c r="DM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1618,6 +1645,9 @@
       <c r="DH6" t="inlineStr"/>
       <c r="DI6" t="inlineStr"/>
       <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1740,6 +1770,9 @@
       <c r="DH7" t="inlineStr"/>
       <c r="DI7" t="inlineStr"/>
       <c r="DJ7" t="inlineStr"/>
+      <c r="DK7" t="inlineStr"/>
+      <c r="DL7" t="inlineStr"/>
+      <c r="DM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1862,6 +1895,9 @@
       <c r="DH8" t="inlineStr"/>
       <c r="DI8" t="inlineStr"/>
       <c r="DJ8" t="inlineStr"/>
+      <c r="DK8" t="inlineStr"/>
+      <c r="DL8" t="inlineStr"/>
+      <c r="DM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1984,6 +2020,9 @@
       <c r="DH9" t="inlineStr"/>
       <c r="DI9" t="inlineStr"/>
       <c r="DJ9" t="inlineStr"/>
+      <c r="DK9" t="inlineStr"/>
+      <c r="DL9" t="inlineStr"/>
+      <c r="DM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2106,6 +2145,9 @@
       <c r="DH10" t="inlineStr"/>
       <c r="DI10" t="inlineStr"/>
       <c r="DJ10" t="inlineStr"/>
+      <c r="DK10" t="inlineStr"/>
+      <c r="DL10" t="inlineStr"/>
+      <c r="DM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2230,6 +2272,9 @@
       <c r="DH11" t="inlineStr"/>
       <c r="DI11" t="inlineStr"/>
       <c r="DJ11" t="inlineStr"/>
+      <c r="DK11" t="inlineStr"/>
+      <c r="DL11" t="inlineStr"/>
+      <c r="DM11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM11"/>
+  <dimension ref="A1:DP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,15 +1010,30 @@
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').37</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').37</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').37</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1148,6 +1163,9 @@
       <c r="DK2" t="inlineStr"/>
       <c r="DL2" t="inlineStr"/>
       <c r="DM2" t="inlineStr"/>
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" t="inlineStr"/>
+      <c r="DP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1273,6 +1291,9 @@
       <c r="DK3" t="inlineStr"/>
       <c r="DL3" t="inlineStr"/>
       <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" t="inlineStr"/>
+      <c r="DP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1398,6 +1419,9 @@
       <c r="DK4" t="inlineStr"/>
       <c r="DL4" t="inlineStr"/>
       <c r="DM4" t="inlineStr"/>
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" t="inlineStr"/>
+      <c r="DP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1523,6 +1547,9 @@
       <c r="DK5" t="inlineStr"/>
       <c r="DL5" t="inlineStr"/>
       <c r="DM5" t="inlineStr"/>
+      <c r="DN5" t="inlineStr"/>
+      <c r="DO5" t="inlineStr"/>
+      <c r="DP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1648,6 +1675,9 @@
       <c r="DK6" t="inlineStr"/>
       <c r="DL6" t="inlineStr"/>
       <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1773,6 +1803,9 @@
       <c r="DK7" t="inlineStr"/>
       <c r="DL7" t="inlineStr"/>
       <c r="DM7" t="inlineStr"/>
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" t="inlineStr"/>
+      <c r="DP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1898,6 +1931,9 @@
       <c r="DK8" t="inlineStr"/>
       <c r="DL8" t="inlineStr"/>
       <c r="DM8" t="inlineStr"/>
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" t="inlineStr"/>
+      <c r="DP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2023,6 +2059,9 @@
       <c r="DK9" t="inlineStr"/>
       <c r="DL9" t="inlineStr"/>
       <c r="DM9" t="inlineStr"/>
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" t="inlineStr"/>
+      <c r="DP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2148,6 +2187,9 @@
       <c r="DK10" t="inlineStr"/>
       <c r="DL10" t="inlineStr"/>
       <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" t="inlineStr"/>
+      <c r="DP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2275,6 +2317,9 @@
       <c r="DK11" t="inlineStr"/>
       <c r="DL11" t="inlineStr"/>
       <c r="DM11" t="inlineStr"/>
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" t="inlineStr"/>
+      <c r="DP11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP11"/>
+  <dimension ref="A1:DS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,15 +1025,30 @@
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').38</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').38</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').38</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1166,6 +1181,9 @@
       <c r="DN2" t="inlineStr"/>
       <c r="DO2" t="inlineStr"/>
       <c r="DP2" t="inlineStr"/>
+      <c r="DQ2" t="inlineStr"/>
+      <c r="DR2" t="inlineStr"/>
+      <c r="DS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1294,6 +1312,9 @@
       <c r="DN3" t="inlineStr"/>
       <c r="DO3" t="inlineStr"/>
       <c r="DP3" t="inlineStr"/>
+      <c r="DQ3" t="inlineStr"/>
+      <c r="DR3" t="inlineStr"/>
+      <c r="DS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1422,6 +1443,9 @@
       <c r="DN4" t="inlineStr"/>
       <c r="DO4" t="inlineStr"/>
       <c r="DP4" t="inlineStr"/>
+      <c r="DQ4" t="inlineStr"/>
+      <c r="DR4" t="inlineStr"/>
+      <c r="DS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1550,6 +1574,9 @@
       <c r="DN5" t="inlineStr"/>
       <c r="DO5" t="inlineStr"/>
       <c r="DP5" t="inlineStr"/>
+      <c r="DQ5" t="inlineStr"/>
+      <c r="DR5" t="inlineStr"/>
+      <c r="DS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1678,6 +1705,9 @@
       <c r="DN6" t="inlineStr"/>
       <c r="DO6" t="inlineStr"/>
       <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1806,6 +1836,9 @@
       <c r="DN7" t="inlineStr"/>
       <c r="DO7" t="inlineStr"/>
       <c r="DP7" t="inlineStr"/>
+      <c r="DQ7" t="inlineStr"/>
+      <c r="DR7" t="inlineStr"/>
+      <c r="DS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1934,6 +1967,9 @@
       <c r="DN8" t="inlineStr"/>
       <c r="DO8" t="inlineStr"/>
       <c r="DP8" t="inlineStr"/>
+      <c r="DQ8" t="inlineStr"/>
+      <c r="DR8" t="inlineStr"/>
+      <c r="DS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2062,6 +2098,9 @@
       <c r="DN9" t="inlineStr"/>
       <c r="DO9" t="inlineStr"/>
       <c r="DP9" t="inlineStr"/>
+      <c r="DQ9" t="inlineStr"/>
+      <c r="DR9" t="inlineStr"/>
+      <c r="DS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2190,6 +2229,9 @@
       <c r="DN10" t="inlineStr"/>
       <c r="DO10" t="inlineStr"/>
       <c r="DP10" t="inlineStr"/>
+      <c r="DQ10" t="inlineStr"/>
+      <c r="DR10" t="inlineStr"/>
+      <c r="DS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2320,6 +2362,9 @@
       <c r="DN11" t="inlineStr"/>
       <c r="DO11" t="inlineStr"/>
       <c r="DP11" t="inlineStr"/>
+      <c r="DQ11" t="inlineStr"/>
+      <c r="DR11" t="inlineStr"/>
+      <c r="DS11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS11"/>
+  <dimension ref="A1:DV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,15 +1040,30 @@
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').39</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').39</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').39</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1184,6 +1199,9 @@
       <c r="DQ2" t="inlineStr"/>
       <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr"/>
+      <c r="DT2" t="inlineStr"/>
+      <c r="DU2" t="inlineStr"/>
+      <c r="DV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1315,6 +1333,9 @@
       <c r="DQ3" t="inlineStr"/>
       <c r="DR3" t="inlineStr"/>
       <c r="DS3" t="inlineStr"/>
+      <c r="DT3" t="inlineStr"/>
+      <c r="DU3" t="inlineStr"/>
+      <c r="DV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1446,6 +1467,9 @@
       <c r="DQ4" t="inlineStr"/>
       <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr"/>
+      <c r="DT4" t="inlineStr"/>
+      <c r="DU4" t="inlineStr"/>
+      <c r="DV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1577,6 +1601,9 @@
       <c r="DQ5" t="inlineStr"/>
       <c r="DR5" t="inlineStr"/>
       <c r="DS5" t="inlineStr"/>
+      <c r="DT5" t="inlineStr"/>
+      <c r="DU5" t="inlineStr"/>
+      <c r="DV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1708,6 +1735,9 @@
       <c r="DQ6" t="inlineStr"/>
       <c r="DR6" t="inlineStr"/>
       <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1839,6 +1869,9 @@
       <c r="DQ7" t="inlineStr"/>
       <c r="DR7" t="inlineStr"/>
       <c r="DS7" t="inlineStr"/>
+      <c r="DT7" t="inlineStr"/>
+      <c r="DU7" t="inlineStr"/>
+      <c r="DV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1970,6 +2003,9 @@
       <c r="DQ8" t="inlineStr"/>
       <c r="DR8" t="inlineStr"/>
       <c r="DS8" t="inlineStr"/>
+      <c r="DT8" t="inlineStr"/>
+      <c r="DU8" t="inlineStr"/>
+      <c r="DV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2101,6 +2137,9 @@
       <c r="DQ9" t="inlineStr"/>
       <c r="DR9" t="inlineStr"/>
       <c r="DS9" t="inlineStr"/>
+      <c r="DT9" t="inlineStr"/>
+      <c r="DU9" t="inlineStr"/>
+      <c r="DV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2232,6 +2271,9 @@
       <c r="DQ10" t="inlineStr"/>
       <c r="DR10" t="inlineStr"/>
       <c r="DS10" t="inlineStr"/>
+      <c r="DT10" t="inlineStr"/>
+      <c r="DU10" t="inlineStr"/>
+      <c r="DV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2365,6 +2407,9 @@
       <c r="DQ11" t="inlineStr"/>
       <c r="DR11" t="inlineStr"/>
       <c r="DS11" t="inlineStr"/>
+      <c r="DT11" t="inlineStr"/>
+      <c r="DU11" t="inlineStr"/>
+      <c r="DV11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV11"/>
+  <dimension ref="A1:DY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,15 +1055,30 @@
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').40</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').40</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').40</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1202,6 +1217,9 @@
       <c r="DT2" t="inlineStr"/>
       <c r="DU2" t="inlineStr"/>
       <c r="DV2" t="inlineStr"/>
+      <c r="DW2" t="inlineStr"/>
+      <c r="DX2" t="inlineStr"/>
+      <c r="DY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1336,6 +1354,9 @@
       <c r="DT3" t="inlineStr"/>
       <c r="DU3" t="inlineStr"/>
       <c r="DV3" t="inlineStr"/>
+      <c r="DW3" t="inlineStr"/>
+      <c r="DX3" t="inlineStr"/>
+      <c r="DY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1470,6 +1491,9 @@
       <c r="DT4" t="inlineStr"/>
       <c r="DU4" t="inlineStr"/>
       <c r="DV4" t="inlineStr"/>
+      <c r="DW4" t="inlineStr"/>
+      <c r="DX4" t="inlineStr"/>
+      <c r="DY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1604,6 +1628,9 @@
       <c r="DT5" t="inlineStr"/>
       <c r="DU5" t="inlineStr"/>
       <c r="DV5" t="inlineStr"/>
+      <c r="DW5" t="inlineStr"/>
+      <c r="DX5" t="inlineStr"/>
+      <c r="DY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1738,6 +1765,9 @@
       <c r="DT6" t="inlineStr"/>
       <c r="DU6" t="inlineStr"/>
       <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1872,6 +1902,9 @@
       <c r="DT7" t="inlineStr"/>
       <c r="DU7" t="inlineStr"/>
       <c r="DV7" t="inlineStr"/>
+      <c r="DW7" t="inlineStr"/>
+      <c r="DX7" t="inlineStr"/>
+      <c r="DY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2006,6 +2039,9 @@
       <c r="DT8" t="inlineStr"/>
       <c r="DU8" t="inlineStr"/>
       <c r="DV8" t="inlineStr"/>
+      <c r="DW8" t="inlineStr"/>
+      <c r="DX8" t="inlineStr"/>
+      <c r="DY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2140,6 +2176,9 @@
       <c r="DT9" t="inlineStr"/>
       <c r="DU9" t="inlineStr"/>
       <c r="DV9" t="inlineStr"/>
+      <c r="DW9" t="inlineStr"/>
+      <c r="DX9" t="inlineStr"/>
+      <c r="DY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2274,6 +2313,9 @@
       <c r="DT10" t="inlineStr"/>
       <c r="DU10" t="inlineStr"/>
       <c r="DV10" t="inlineStr"/>
+      <c r="DW10" t="inlineStr"/>
+      <c r="DX10" t="inlineStr"/>
+      <c r="DY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2410,6 +2452,9 @@
       <c r="DT11" t="inlineStr"/>
       <c r="DU11" t="inlineStr"/>
       <c r="DV11" t="inlineStr"/>
+      <c r="DW11" t="inlineStr"/>
+      <c r="DX11" t="inlineStr"/>
+      <c r="DY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY11"/>
+  <dimension ref="A1:EB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,15 +1070,30 @@
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').41</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').41</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').41</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1220,6 +1235,9 @@
       <c r="DW2" t="inlineStr"/>
       <c r="DX2" t="inlineStr"/>
       <c r="DY2" t="inlineStr"/>
+      <c r="DZ2" t="inlineStr"/>
+      <c r="EA2" t="inlineStr"/>
+      <c r="EB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1357,6 +1375,9 @@
       <c r="DW3" t="inlineStr"/>
       <c r="DX3" t="inlineStr"/>
       <c r="DY3" t="inlineStr"/>
+      <c r="DZ3" t="inlineStr"/>
+      <c r="EA3" t="inlineStr"/>
+      <c r="EB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1494,6 +1515,9 @@
       <c r="DW4" t="inlineStr"/>
       <c r="DX4" t="inlineStr"/>
       <c r="DY4" t="inlineStr"/>
+      <c r="DZ4" t="inlineStr"/>
+      <c r="EA4" t="inlineStr"/>
+      <c r="EB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1631,6 +1655,9 @@
       <c r="DW5" t="inlineStr"/>
       <c r="DX5" t="inlineStr"/>
       <c r="DY5" t="inlineStr"/>
+      <c r="DZ5" t="inlineStr"/>
+      <c r="EA5" t="inlineStr"/>
+      <c r="EB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1768,6 +1795,9 @@
       <c r="DW6" t="inlineStr"/>
       <c r="DX6" t="inlineStr"/>
       <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1905,6 +1935,9 @@
       <c r="DW7" t="inlineStr"/>
       <c r="DX7" t="inlineStr"/>
       <c r="DY7" t="inlineStr"/>
+      <c r="DZ7" t="inlineStr"/>
+      <c r="EA7" t="inlineStr"/>
+      <c r="EB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2042,6 +2075,9 @@
       <c r="DW8" t="inlineStr"/>
       <c r="DX8" t="inlineStr"/>
       <c r="DY8" t="inlineStr"/>
+      <c r="DZ8" t="inlineStr"/>
+      <c r="EA8" t="inlineStr"/>
+      <c r="EB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2179,6 +2215,9 @@
       <c r="DW9" t="inlineStr"/>
       <c r="DX9" t="inlineStr"/>
       <c r="DY9" t="inlineStr"/>
+      <c r="DZ9" t="inlineStr"/>
+      <c r="EA9" t="inlineStr"/>
+      <c r="EB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2316,6 +2355,9 @@
       <c r="DW10" t="inlineStr"/>
       <c r="DX10" t="inlineStr"/>
       <c r="DY10" t="inlineStr"/>
+      <c r="DZ10" t="inlineStr"/>
+      <c r="EA10" t="inlineStr"/>
+      <c r="EB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2455,6 +2497,9 @@
       <c r="DW11" t="inlineStr"/>
       <c r="DX11" t="inlineStr"/>
       <c r="DY11" t="inlineStr"/>
+      <c r="DZ11" t="inlineStr"/>
+      <c r="EA11" t="inlineStr"/>
+      <c r="EB11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB11"/>
+  <dimension ref="A1:EE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,15 +1085,30 @@
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').42</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').42</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').42</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1238,6 +1253,9 @@
       <c r="DZ2" t="inlineStr"/>
       <c r="EA2" t="inlineStr"/>
       <c r="EB2" t="inlineStr"/>
+      <c r="EC2" t="inlineStr"/>
+      <c r="ED2" t="inlineStr"/>
+      <c r="EE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1378,6 +1396,9 @@
       <c r="DZ3" t="inlineStr"/>
       <c r="EA3" t="inlineStr"/>
       <c r="EB3" t="inlineStr"/>
+      <c r="EC3" t="inlineStr"/>
+      <c r="ED3" t="inlineStr"/>
+      <c r="EE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1518,6 +1539,9 @@
       <c r="DZ4" t="inlineStr"/>
       <c r="EA4" t="inlineStr"/>
       <c r="EB4" t="inlineStr"/>
+      <c r="EC4" t="inlineStr"/>
+      <c r="ED4" t="inlineStr"/>
+      <c r="EE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1658,6 +1682,9 @@
       <c r="DZ5" t="inlineStr"/>
       <c r="EA5" t="inlineStr"/>
       <c r="EB5" t="inlineStr"/>
+      <c r="EC5" t="inlineStr"/>
+      <c r="ED5" t="inlineStr"/>
+      <c r="EE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1798,6 +1825,9 @@
       <c r="DZ6" t="inlineStr"/>
       <c r="EA6" t="inlineStr"/>
       <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1938,6 +1968,9 @@
       <c r="DZ7" t="inlineStr"/>
       <c r="EA7" t="inlineStr"/>
       <c r="EB7" t="inlineStr"/>
+      <c r="EC7" t="inlineStr"/>
+      <c r="ED7" t="inlineStr"/>
+      <c r="EE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2078,6 +2111,9 @@
       <c r="DZ8" t="inlineStr"/>
       <c r="EA8" t="inlineStr"/>
       <c r="EB8" t="inlineStr"/>
+      <c r="EC8" t="inlineStr"/>
+      <c r="ED8" t="inlineStr"/>
+      <c r="EE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2218,6 +2254,9 @@
       <c r="DZ9" t="inlineStr"/>
       <c r="EA9" t="inlineStr"/>
       <c r="EB9" t="inlineStr"/>
+      <c r="EC9" t="inlineStr"/>
+      <c r="ED9" t="inlineStr"/>
+      <c r="EE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2358,6 +2397,9 @@
       <c r="DZ10" t="inlineStr"/>
       <c r="EA10" t="inlineStr"/>
       <c r="EB10" t="inlineStr"/>
+      <c r="EC10" t="inlineStr"/>
+      <c r="ED10" t="inlineStr"/>
+      <c r="EE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2500,6 +2542,9 @@
       <c r="DZ11" t="inlineStr"/>
       <c r="EA11" t="inlineStr"/>
       <c r="EB11" t="inlineStr"/>
+      <c r="EC11" t="inlineStr"/>
+      <c r="ED11" t="inlineStr"/>
+      <c r="EE11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE11"/>
+  <dimension ref="A1:EH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,15 +1100,30 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').43</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').43</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').43</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1256,6 +1271,9 @@
       <c r="EC2" t="inlineStr"/>
       <c r="ED2" t="inlineStr"/>
       <c r="EE2" t="inlineStr"/>
+      <c r="EF2" t="inlineStr"/>
+      <c r="EG2" t="inlineStr"/>
+      <c r="EH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1399,6 +1417,9 @@
       <c r="EC3" t="inlineStr"/>
       <c r="ED3" t="inlineStr"/>
       <c r="EE3" t="inlineStr"/>
+      <c r="EF3" t="inlineStr"/>
+      <c r="EG3" t="inlineStr"/>
+      <c r="EH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1542,6 +1563,9 @@
       <c r="EC4" t="inlineStr"/>
       <c r="ED4" t="inlineStr"/>
       <c r="EE4" t="inlineStr"/>
+      <c r="EF4" t="inlineStr"/>
+      <c r="EG4" t="inlineStr"/>
+      <c r="EH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1685,6 +1709,9 @@
       <c r="EC5" t="inlineStr"/>
       <c r="ED5" t="inlineStr"/>
       <c r="EE5" t="inlineStr"/>
+      <c r="EF5" t="inlineStr"/>
+      <c r="EG5" t="inlineStr"/>
+      <c r="EH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1828,6 +1855,9 @@
       <c r="EC6" t="inlineStr"/>
       <c r="ED6" t="inlineStr"/>
       <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1971,6 +2001,9 @@
       <c r="EC7" t="inlineStr"/>
       <c r="ED7" t="inlineStr"/>
       <c r="EE7" t="inlineStr"/>
+      <c r="EF7" t="inlineStr"/>
+      <c r="EG7" t="inlineStr"/>
+      <c r="EH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2114,6 +2147,9 @@
       <c r="EC8" t="inlineStr"/>
       <c r="ED8" t="inlineStr"/>
       <c r="EE8" t="inlineStr"/>
+      <c r="EF8" t="inlineStr"/>
+      <c r="EG8" t="inlineStr"/>
+      <c r="EH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2257,6 +2293,9 @@
       <c r="EC9" t="inlineStr"/>
       <c r="ED9" t="inlineStr"/>
       <c r="EE9" t="inlineStr"/>
+      <c r="EF9" t="inlineStr"/>
+      <c r="EG9" t="inlineStr"/>
+      <c r="EH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2400,6 +2439,9 @@
       <c r="EC10" t="inlineStr"/>
       <c r="ED10" t="inlineStr"/>
       <c r="EE10" t="inlineStr"/>
+      <c r="EF10" t="inlineStr"/>
+      <c r="EG10" t="inlineStr"/>
+      <c r="EH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2545,6 +2587,9 @@
       <c r="EC11" t="inlineStr"/>
       <c r="ED11" t="inlineStr"/>
       <c r="EE11" t="inlineStr"/>
+      <c r="EF11" t="inlineStr"/>
+      <c r="EG11" t="inlineStr"/>
+      <c r="EH11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH11"/>
+  <dimension ref="A1:EK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,15 +1115,30 @@
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').44</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').44</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').44</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1274,6 +1289,9 @@
       <c r="EF2" t="inlineStr"/>
       <c r="EG2" t="inlineStr"/>
       <c r="EH2" t="inlineStr"/>
+      <c r="EI2" t="inlineStr"/>
+      <c r="EJ2" t="inlineStr"/>
+      <c r="EK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1420,6 +1438,9 @@
       <c r="EF3" t="inlineStr"/>
       <c r="EG3" t="inlineStr"/>
       <c r="EH3" t="inlineStr"/>
+      <c r="EI3" t="inlineStr"/>
+      <c r="EJ3" t="inlineStr"/>
+      <c r="EK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1566,6 +1587,9 @@
       <c r="EF4" t="inlineStr"/>
       <c r="EG4" t="inlineStr"/>
       <c r="EH4" t="inlineStr"/>
+      <c r="EI4" t="inlineStr"/>
+      <c r="EJ4" t="inlineStr"/>
+      <c r="EK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1712,6 +1736,9 @@
       <c r="EF5" t="inlineStr"/>
       <c r="EG5" t="inlineStr"/>
       <c r="EH5" t="inlineStr"/>
+      <c r="EI5" t="inlineStr"/>
+      <c r="EJ5" t="inlineStr"/>
+      <c r="EK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1858,6 +1885,9 @@
       <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="inlineStr"/>
       <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2004,6 +2034,9 @@
       <c r="EF7" t="inlineStr"/>
       <c r="EG7" t="inlineStr"/>
       <c r="EH7" t="inlineStr"/>
+      <c r="EI7" t="inlineStr"/>
+      <c r="EJ7" t="inlineStr"/>
+      <c r="EK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2150,6 +2183,9 @@
       <c r="EF8" t="inlineStr"/>
       <c r="EG8" t="inlineStr"/>
       <c r="EH8" t="inlineStr"/>
+      <c r="EI8" t="inlineStr"/>
+      <c r="EJ8" t="inlineStr"/>
+      <c r="EK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2296,6 +2332,9 @@
       <c r="EF9" t="inlineStr"/>
       <c r="EG9" t="inlineStr"/>
       <c r="EH9" t="inlineStr"/>
+      <c r="EI9" t="inlineStr"/>
+      <c r="EJ9" t="inlineStr"/>
+      <c r="EK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2442,6 +2481,9 @@
       <c r="EF10" t="inlineStr"/>
       <c r="EG10" t="inlineStr"/>
       <c r="EH10" t="inlineStr"/>
+      <c r="EI10" t="inlineStr"/>
+      <c r="EJ10" t="inlineStr"/>
+      <c r="EK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2590,6 +2632,9 @@
       <c r="EF11" t="inlineStr"/>
       <c r="EG11" t="inlineStr"/>
       <c r="EH11" t="inlineStr"/>
+      <c r="EI11" t="inlineStr"/>
+      <c r="EJ11" t="inlineStr"/>
+      <c r="EK11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK11"/>
+  <dimension ref="A1:EN11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,15 +1130,30 @@
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').45</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').45</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').45</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1292,6 +1307,9 @@
       <c r="EI2" t="inlineStr"/>
       <c r="EJ2" t="inlineStr"/>
       <c r="EK2" t="inlineStr"/>
+      <c r="EL2" t="inlineStr"/>
+      <c r="EM2" t="inlineStr"/>
+      <c r="EN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1441,6 +1459,9 @@
       <c r="EI3" t="inlineStr"/>
       <c r="EJ3" t="inlineStr"/>
       <c r="EK3" t="inlineStr"/>
+      <c r="EL3" t="inlineStr"/>
+      <c r="EM3" t="inlineStr"/>
+      <c r="EN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1590,6 +1611,9 @@
       <c r="EI4" t="inlineStr"/>
       <c r="EJ4" t="inlineStr"/>
       <c r="EK4" t="inlineStr"/>
+      <c r="EL4" t="inlineStr"/>
+      <c r="EM4" t="inlineStr"/>
+      <c r="EN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1739,6 +1763,9 @@
       <c r="EI5" t="inlineStr"/>
       <c r="EJ5" t="inlineStr"/>
       <c r="EK5" t="inlineStr"/>
+      <c r="EL5" t="inlineStr"/>
+      <c r="EM5" t="inlineStr"/>
+      <c r="EN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1888,6 +1915,9 @@
       <c r="EI6" t="inlineStr"/>
       <c r="EJ6" t="inlineStr"/>
       <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2037,6 +2067,9 @@
       <c r="EI7" t="inlineStr"/>
       <c r="EJ7" t="inlineStr"/>
       <c r="EK7" t="inlineStr"/>
+      <c r="EL7" t="inlineStr"/>
+      <c r="EM7" t="inlineStr"/>
+      <c r="EN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2186,6 +2219,9 @@
       <c r="EI8" t="inlineStr"/>
       <c r="EJ8" t="inlineStr"/>
       <c r="EK8" t="inlineStr"/>
+      <c r="EL8" t="inlineStr"/>
+      <c r="EM8" t="inlineStr"/>
+      <c r="EN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2335,6 +2371,9 @@
       <c r="EI9" t="inlineStr"/>
       <c r="EJ9" t="inlineStr"/>
       <c r="EK9" t="inlineStr"/>
+      <c r="EL9" t="inlineStr"/>
+      <c r="EM9" t="inlineStr"/>
+      <c r="EN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2484,6 +2523,9 @@
       <c r="EI10" t="inlineStr"/>
       <c r="EJ10" t="inlineStr"/>
       <c r="EK10" t="inlineStr"/>
+      <c r="EL10" t="inlineStr"/>
+      <c r="EM10" t="inlineStr"/>
+      <c r="EN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2635,6 +2677,9 @@
       <c r="EI11" t="inlineStr"/>
       <c r="EJ11" t="inlineStr"/>
       <c r="EK11" t="inlineStr"/>
+      <c r="EL11" t="inlineStr"/>
+      <c r="EM11" t="inlineStr"/>
+      <c r="EN11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN11"/>
+  <dimension ref="A1:EQ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,15 +1145,30 @@
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').46</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').46</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').46</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1310,6 +1325,9 @@
       <c r="EL2" t="inlineStr"/>
       <c r="EM2" t="inlineStr"/>
       <c r="EN2" t="inlineStr"/>
+      <c r="EO2" t="inlineStr"/>
+      <c r="EP2" t="inlineStr"/>
+      <c r="EQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1462,6 +1480,9 @@
       <c r="EL3" t="inlineStr"/>
       <c r="EM3" t="inlineStr"/>
       <c r="EN3" t="inlineStr"/>
+      <c r="EO3" t="inlineStr"/>
+      <c r="EP3" t="inlineStr"/>
+      <c r="EQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1614,6 +1635,9 @@
       <c r="EL4" t="inlineStr"/>
       <c r="EM4" t="inlineStr"/>
       <c r="EN4" t="inlineStr"/>
+      <c r="EO4" t="inlineStr"/>
+      <c r="EP4" t="inlineStr"/>
+      <c r="EQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1766,6 +1790,9 @@
       <c r="EL5" t="inlineStr"/>
       <c r="EM5" t="inlineStr"/>
       <c r="EN5" t="inlineStr"/>
+      <c r="EO5" t="inlineStr"/>
+      <c r="EP5" t="inlineStr"/>
+      <c r="EQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1918,6 +1945,9 @@
       <c r="EL6" t="inlineStr"/>
       <c r="EM6" t="inlineStr"/>
       <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2070,6 +2100,9 @@
       <c r="EL7" t="inlineStr"/>
       <c r="EM7" t="inlineStr"/>
       <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="inlineStr"/>
+      <c r="EP7" t="inlineStr"/>
+      <c r="EQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2222,6 +2255,9 @@
       <c r="EL8" t="inlineStr"/>
       <c r="EM8" t="inlineStr"/>
       <c r="EN8" t="inlineStr"/>
+      <c r="EO8" t="inlineStr"/>
+      <c r="EP8" t="inlineStr"/>
+      <c r="EQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2374,6 +2410,9 @@
       <c r="EL9" t="inlineStr"/>
       <c r="EM9" t="inlineStr"/>
       <c r="EN9" t="inlineStr"/>
+      <c r="EO9" t="inlineStr"/>
+      <c r="EP9" t="inlineStr"/>
+      <c r="EQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2526,6 +2565,9 @@
       <c r="EL10" t="inlineStr"/>
       <c r="EM10" t="inlineStr"/>
       <c r="EN10" t="inlineStr"/>
+      <c r="EO10" t="inlineStr"/>
+      <c r="EP10" t="inlineStr"/>
+      <c r="EQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2680,6 +2722,9 @@
       <c r="EL11" t="inlineStr"/>
       <c r="EM11" t="inlineStr"/>
       <c r="EN11" t="inlineStr"/>
+      <c r="EO11" t="inlineStr"/>
+      <c r="EP11" t="inlineStr"/>
+      <c r="EQ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ11"/>
+  <dimension ref="A1:ET11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1160,15 +1160,30 @@
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').47</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').47</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').47</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1328,6 +1343,9 @@
       <c r="EO2" t="inlineStr"/>
       <c r="EP2" t="inlineStr"/>
       <c r="EQ2" t="inlineStr"/>
+      <c r="ER2" t="inlineStr"/>
+      <c r="ES2" t="inlineStr"/>
+      <c r="ET2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1483,6 +1501,9 @@
       <c r="EO3" t="inlineStr"/>
       <c r="EP3" t="inlineStr"/>
       <c r="EQ3" t="inlineStr"/>
+      <c r="ER3" t="inlineStr"/>
+      <c r="ES3" t="inlineStr"/>
+      <c r="ET3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1638,6 +1659,9 @@
       <c r="EO4" t="inlineStr"/>
       <c r="EP4" t="inlineStr"/>
       <c r="EQ4" t="inlineStr"/>
+      <c r="ER4" t="inlineStr"/>
+      <c r="ES4" t="inlineStr"/>
+      <c r="ET4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1793,6 +1817,9 @@
       <c r="EO5" t="inlineStr"/>
       <c r="EP5" t="inlineStr"/>
       <c r="EQ5" t="inlineStr"/>
+      <c r="ER5" t="inlineStr"/>
+      <c r="ES5" t="inlineStr"/>
+      <c r="ET5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1948,6 +1975,9 @@
       <c r="EO6" t="inlineStr"/>
       <c r="EP6" t="inlineStr"/>
       <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2103,6 +2133,9 @@
       <c r="EO7" t="inlineStr"/>
       <c r="EP7" t="inlineStr"/>
       <c r="EQ7" t="inlineStr"/>
+      <c r="ER7" t="inlineStr"/>
+      <c r="ES7" t="inlineStr"/>
+      <c r="ET7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2258,6 +2291,9 @@
       <c r="EO8" t="inlineStr"/>
       <c r="EP8" t="inlineStr"/>
       <c r="EQ8" t="inlineStr"/>
+      <c r="ER8" t="inlineStr"/>
+      <c r="ES8" t="inlineStr"/>
+      <c r="ET8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2413,6 +2449,9 @@
       <c r="EO9" t="inlineStr"/>
       <c r="EP9" t="inlineStr"/>
       <c r="EQ9" t="inlineStr"/>
+      <c r="ER9" t="inlineStr"/>
+      <c r="ES9" t="inlineStr"/>
+      <c r="ET9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2568,6 +2607,9 @@
       <c r="EO10" t="inlineStr"/>
       <c r="EP10" t="inlineStr"/>
       <c r="EQ10" t="inlineStr"/>
+      <c r="ER10" t="inlineStr"/>
+      <c r="ES10" t="inlineStr"/>
+      <c r="ET10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2725,6 +2767,9 @@
       <c r="EO11" t="inlineStr"/>
       <c r="EP11" t="inlineStr"/>
       <c r="EQ11" t="inlineStr"/>
+      <c r="ER11" t="inlineStr"/>
+      <c r="ES11" t="inlineStr"/>
+      <c r="ET11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET11"/>
+  <dimension ref="A1:EW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,15 +1175,30 @@
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').48</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').48</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').48</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1346,6 +1361,9 @@
       <c r="ER2" t="inlineStr"/>
       <c r="ES2" t="inlineStr"/>
       <c r="ET2" t="inlineStr"/>
+      <c r="EU2" t="inlineStr"/>
+      <c r="EV2" t="inlineStr"/>
+      <c r="EW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1504,6 +1522,9 @@
       <c r="ER3" t="inlineStr"/>
       <c r="ES3" t="inlineStr"/>
       <c r="ET3" t="inlineStr"/>
+      <c r="EU3" t="inlineStr"/>
+      <c r="EV3" t="inlineStr"/>
+      <c r="EW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1662,6 +1683,9 @@
       <c r="ER4" t="inlineStr"/>
       <c r="ES4" t="inlineStr"/>
       <c r="ET4" t="inlineStr"/>
+      <c r="EU4" t="inlineStr"/>
+      <c r="EV4" t="inlineStr"/>
+      <c r="EW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1820,6 +1844,9 @@
       <c r="ER5" t="inlineStr"/>
       <c r="ES5" t="inlineStr"/>
       <c r="ET5" t="inlineStr"/>
+      <c r="EU5" t="inlineStr"/>
+      <c r="EV5" t="inlineStr"/>
+      <c r="EW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1978,6 +2005,9 @@
       <c r="ER6" t="inlineStr"/>
       <c r="ES6" t="inlineStr"/>
       <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
+      <c r="EW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2136,6 +2166,9 @@
       <c r="ER7" t="inlineStr"/>
       <c r="ES7" t="inlineStr"/>
       <c r="ET7" t="inlineStr"/>
+      <c r="EU7" t="inlineStr"/>
+      <c r="EV7" t="inlineStr"/>
+      <c r="EW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2294,6 +2327,9 @@
       <c r="ER8" t="inlineStr"/>
       <c r="ES8" t="inlineStr"/>
       <c r="ET8" t="inlineStr"/>
+      <c r="EU8" t="inlineStr"/>
+      <c r="EV8" t="inlineStr"/>
+      <c r="EW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2452,6 +2488,9 @@
       <c r="ER9" t="inlineStr"/>
       <c r="ES9" t="inlineStr"/>
       <c r="ET9" t="inlineStr"/>
+      <c r="EU9" t="inlineStr"/>
+      <c r="EV9" t="inlineStr"/>
+      <c r="EW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2610,6 +2649,9 @@
       <c r="ER10" t="inlineStr"/>
       <c r="ES10" t="inlineStr"/>
       <c r="ET10" t="inlineStr"/>
+      <c r="EU10" t="inlineStr"/>
+      <c r="EV10" t="inlineStr"/>
+      <c r="EW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2770,6 +2812,9 @@
       <c r="ER11" t="inlineStr"/>
       <c r="ES11" t="inlineStr"/>
       <c r="ET11" t="inlineStr"/>
+      <c r="EU11" t="inlineStr"/>
+      <c r="EV11" t="inlineStr"/>
+      <c r="EW11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW11"/>
+  <dimension ref="A1:EZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1190,30 @@
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').49</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').49</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').49</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1364,6 +1379,9 @@
       <c r="EU2" t="inlineStr"/>
       <c r="EV2" t="inlineStr"/>
       <c r="EW2" t="inlineStr"/>
+      <c r="EX2" t="inlineStr"/>
+      <c r="EY2" t="inlineStr"/>
+      <c r="EZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1525,6 +1543,9 @@
       <c r="EU3" t="inlineStr"/>
       <c r="EV3" t="inlineStr"/>
       <c r="EW3" t="inlineStr"/>
+      <c r="EX3" t="inlineStr"/>
+      <c r="EY3" t="inlineStr"/>
+      <c r="EZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1686,6 +1707,9 @@
       <c r="EU4" t="inlineStr"/>
       <c r="EV4" t="inlineStr"/>
       <c r="EW4" t="inlineStr"/>
+      <c r="EX4" t="inlineStr"/>
+      <c r="EY4" t="inlineStr"/>
+      <c r="EZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1847,6 +1871,9 @@
       <c r="EU5" t="inlineStr"/>
       <c r="EV5" t="inlineStr"/>
       <c r="EW5" t="inlineStr"/>
+      <c r="EX5" t="inlineStr"/>
+      <c r="EY5" t="inlineStr"/>
+      <c r="EZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2008,6 +2035,9 @@
       <c r="EU6" t="inlineStr"/>
       <c r="EV6" t="inlineStr"/>
       <c r="EW6" t="inlineStr"/>
+      <c r="EX6" t="inlineStr"/>
+      <c r="EY6" t="inlineStr"/>
+      <c r="EZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2169,6 +2199,9 @@
       <c r="EU7" t="inlineStr"/>
       <c r="EV7" t="inlineStr"/>
       <c r="EW7" t="inlineStr"/>
+      <c r="EX7" t="inlineStr"/>
+      <c r="EY7" t="inlineStr"/>
+      <c r="EZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2330,6 +2363,9 @@
       <c r="EU8" t="inlineStr"/>
       <c r="EV8" t="inlineStr"/>
       <c r="EW8" t="inlineStr"/>
+      <c r="EX8" t="inlineStr"/>
+      <c r="EY8" t="inlineStr"/>
+      <c r="EZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2491,6 +2527,9 @@
       <c r="EU9" t="inlineStr"/>
       <c r="EV9" t="inlineStr"/>
       <c r="EW9" t="inlineStr"/>
+      <c r="EX9" t="inlineStr"/>
+      <c r="EY9" t="inlineStr"/>
+      <c r="EZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2652,6 +2691,9 @@
       <c r="EU10" t="inlineStr"/>
       <c r="EV10" t="inlineStr"/>
       <c r="EW10" t="inlineStr"/>
+      <c r="EX10" t="inlineStr"/>
+      <c r="EY10" t="inlineStr"/>
+      <c r="EZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2815,6 +2857,9 @@
       <c r="EU11" t="inlineStr"/>
       <c r="EV11" t="inlineStr"/>
       <c r="EW11" t="inlineStr"/>
+      <c r="EX11" t="inlineStr"/>
+      <c r="EY11" t="inlineStr"/>
+      <c r="EZ11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ11"/>
+  <dimension ref="A1:FC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,15 +1205,30 @@
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').50</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').50</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').50</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1382,6 +1397,9 @@
       <c r="EX2" t="inlineStr"/>
       <c r="EY2" t="inlineStr"/>
       <c r="EZ2" t="inlineStr"/>
+      <c r="FA2" t="inlineStr"/>
+      <c r="FB2" t="inlineStr"/>
+      <c r="FC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1546,6 +1564,9 @@
       <c r="EX3" t="inlineStr"/>
       <c r="EY3" t="inlineStr"/>
       <c r="EZ3" t="inlineStr"/>
+      <c r="FA3" t="inlineStr"/>
+      <c r="FB3" t="inlineStr"/>
+      <c r="FC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1710,6 +1731,9 @@
       <c r="EX4" t="inlineStr"/>
       <c r="EY4" t="inlineStr"/>
       <c r="EZ4" t="inlineStr"/>
+      <c r="FA4" t="inlineStr"/>
+      <c r="FB4" t="inlineStr"/>
+      <c r="FC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1874,6 +1898,9 @@
       <c r="EX5" t="inlineStr"/>
       <c r="EY5" t="inlineStr"/>
       <c r="EZ5" t="inlineStr"/>
+      <c r="FA5" t="inlineStr"/>
+      <c r="FB5" t="inlineStr"/>
+      <c r="FC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2038,6 +2065,9 @@
       <c r="EX6" t="inlineStr"/>
       <c r="EY6" t="inlineStr"/>
       <c r="EZ6" t="inlineStr"/>
+      <c r="FA6" t="inlineStr"/>
+      <c r="FB6" t="inlineStr"/>
+      <c r="FC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2202,6 +2232,9 @@
       <c r="EX7" t="inlineStr"/>
       <c r="EY7" t="inlineStr"/>
       <c r="EZ7" t="inlineStr"/>
+      <c r="FA7" t="inlineStr"/>
+      <c r="FB7" t="inlineStr"/>
+      <c r="FC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2366,6 +2399,9 @@
       <c r="EX8" t="inlineStr"/>
       <c r="EY8" t="inlineStr"/>
       <c r="EZ8" t="inlineStr"/>
+      <c r="FA8" t="inlineStr"/>
+      <c r="FB8" t="inlineStr"/>
+      <c r="FC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2530,6 +2566,9 @@
       <c r="EX9" t="inlineStr"/>
       <c r="EY9" t="inlineStr"/>
       <c r="EZ9" t="inlineStr"/>
+      <c r="FA9" t="inlineStr"/>
+      <c r="FB9" t="inlineStr"/>
+      <c r="FC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2694,6 +2733,9 @@
       <c r="EX10" t="inlineStr"/>
       <c r="EY10" t="inlineStr"/>
       <c r="EZ10" t="inlineStr"/>
+      <c r="FA10" t="inlineStr"/>
+      <c r="FB10" t="inlineStr"/>
+      <c r="FC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2860,6 +2902,9 @@
       <c r="EX11" t="inlineStr"/>
       <c r="EY11" t="inlineStr"/>
       <c r="EZ11" t="inlineStr"/>
+      <c r="FA11" t="inlineStr"/>
+      <c r="FB11" t="inlineStr"/>
+      <c r="FC11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC11"/>
+  <dimension ref="A1:FF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,15 +1220,30 @@
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').51</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').51</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').51</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1400,6 +1415,9 @@
       <c r="FA2" t="inlineStr"/>
       <c r="FB2" t="inlineStr"/>
       <c r="FC2" t="inlineStr"/>
+      <c r="FD2" t="inlineStr"/>
+      <c r="FE2" t="inlineStr"/>
+      <c r="FF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1567,6 +1585,9 @@
       <c r="FA3" t="inlineStr"/>
       <c r="FB3" t="inlineStr"/>
       <c r="FC3" t="inlineStr"/>
+      <c r="FD3" t="inlineStr"/>
+      <c r="FE3" t="inlineStr"/>
+      <c r="FF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1734,6 +1755,9 @@
       <c r="FA4" t="inlineStr"/>
       <c r="FB4" t="inlineStr"/>
       <c r="FC4" t="inlineStr"/>
+      <c r="FD4" t="inlineStr"/>
+      <c r="FE4" t="inlineStr"/>
+      <c r="FF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1901,6 +1925,9 @@
       <c r="FA5" t="inlineStr"/>
       <c r="FB5" t="inlineStr"/>
       <c r="FC5" t="inlineStr"/>
+      <c r="FD5" t="inlineStr"/>
+      <c r="FE5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2068,6 +2095,9 @@
       <c r="FA6" t="inlineStr"/>
       <c r="FB6" t="inlineStr"/>
       <c r="FC6" t="inlineStr"/>
+      <c r="FD6" t="inlineStr"/>
+      <c r="FE6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2235,6 +2265,9 @@
       <c r="FA7" t="inlineStr"/>
       <c r="FB7" t="inlineStr"/>
       <c r="FC7" t="inlineStr"/>
+      <c r="FD7" t="inlineStr"/>
+      <c r="FE7" t="inlineStr"/>
+      <c r="FF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2402,6 +2435,9 @@
       <c r="FA8" t="inlineStr"/>
       <c r="FB8" t="inlineStr"/>
       <c r="FC8" t="inlineStr"/>
+      <c r="FD8" t="inlineStr"/>
+      <c r="FE8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2569,6 +2605,9 @@
       <c r="FA9" t="inlineStr"/>
       <c r="FB9" t="inlineStr"/>
       <c r="FC9" t="inlineStr"/>
+      <c r="FD9" t="inlineStr"/>
+      <c r="FE9" t="inlineStr"/>
+      <c r="FF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2736,6 +2775,9 @@
       <c r="FA10" t="inlineStr"/>
       <c r="FB10" t="inlineStr"/>
       <c r="FC10" t="inlineStr"/>
+      <c r="FD10" t="inlineStr"/>
+      <c r="FE10" t="inlineStr"/>
+      <c r="FF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2905,6 +2947,9 @@
       <c r="FA11" t="inlineStr"/>
       <c r="FB11" t="inlineStr"/>
       <c r="FC11" t="inlineStr"/>
+      <c r="FD11" t="inlineStr"/>
+      <c r="FE11" t="inlineStr"/>
+      <c r="FF11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF11"/>
+  <dimension ref="A1:FI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,15 +1235,30 @@
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').52</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').52</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').52</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1418,6 +1433,9 @@
       <c r="FD2" t="inlineStr"/>
       <c r="FE2" t="inlineStr"/>
       <c r="FF2" t="inlineStr"/>
+      <c r="FG2" t="inlineStr"/>
+      <c r="FH2" t="inlineStr"/>
+      <c r="FI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1588,6 +1606,9 @@
       <c r="FD3" t="inlineStr"/>
       <c r="FE3" t="inlineStr"/>
       <c r="FF3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr"/>
+      <c r="FH3" t="inlineStr"/>
+      <c r="FI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1758,6 +1779,9 @@
       <c r="FD4" t="inlineStr"/>
       <c r="FE4" t="inlineStr"/>
       <c r="FF4" t="inlineStr"/>
+      <c r="FG4" t="inlineStr"/>
+      <c r="FH4" t="inlineStr"/>
+      <c r="FI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1928,6 +1952,9 @@
       <c r="FD5" t="inlineStr"/>
       <c r="FE5" t="inlineStr"/>
       <c r="FF5" t="inlineStr"/>
+      <c r="FG5" t="inlineStr"/>
+      <c r="FH5" t="inlineStr"/>
+      <c r="FI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2098,6 +2125,9 @@
       <c r="FD6" t="inlineStr"/>
       <c r="FE6" t="inlineStr"/>
       <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="inlineStr"/>
+      <c r="FH6" t="inlineStr"/>
+      <c r="FI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2268,6 +2298,9 @@
       <c r="FD7" t="inlineStr"/>
       <c r="FE7" t="inlineStr"/>
       <c r="FF7" t="inlineStr"/>
+      <c r="FG7" t="inlineStr"/>
+      <c r="FH7" t="inlineStr"/>
+      <c r="FI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2438,6 +2471,9 @@
       <c r="FD8" t="inlineStr"/>
       <c r="FE8" t="inlineStr"/>
       <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="inlineStr"/>
+      <c r="FH8" t="inlineStr"/>
+      <c r="FI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2608,6 +2644,9 @@
       <c r="FD9" t="inlineStr"/>
       <c r="FE9" t="inlineStr"/>
       <c r="FF9" t="inlineStr"/>
+      <c r="FG9" t="inlineStr"/>
+      <c r="FH9" t="inlineStr"/>
+      <c r="FI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2778,6 +2817,9 @@
       <c r="FD10" t="inlineStr"/>
       <c r="FE10" t="inlineStr"/>
       <c r="FF10" t="inlineStr"/>
+      <c r="FG10" t="inlineStr"/>
+      <c r="FH10" t="inlineStr"/>
+      <c r="FI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2950,6 +2992,9 @@
       <c r="FD11" t="inlineStr"/>
       <c r="FE11" t="inlineStr"/>
       <c r="FF11" t="inlineStr"/>
+      <c r="FG11" t="inlineStr"/>
+      <c r="FH11" t="inlineStr"/>
+      <c r="FI11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI11"/>
+  <dimension ref="A1:FL11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,15 +1250,30 @@
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').53</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').53</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').53</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1436,6 +1451,9 @@
       <c r="FG2" t="inlineStr"/>
       <c r="FH2" t="inlineStr"/>
       <c r="FI2" t="inlineStr"/>
+      <c r="FJ2" t="inlineStr"/>
+      <c r="FK2" t="inlineStr"/>
+      <c r="FL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1609,6 +1627,9 @@
       <c r="FG3" t="inlineStr"/>
       <c r="FH3" t="inlineStr"/>
       <c r="FI3" t="inlineStr"/>
+      <c r="FJ3" t="inlineStr"/>
+      <c r="FK3" t="inlineStr"/>
+      <c r="FL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1782,6 +1803,9 @@
       <c r="FG4" t="inlineStr"/>
       <c r="FH4" t="inlineStr"/>
       <c r="FI4" t="inlineStr"/>
+      <c r="FJ4" t="inlineStr"/>
+      <c r="FK4" t="inlineStr"/>
+      <c r="FL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1955,6 +1979,9 @@
       <c r="FG5" t="inlineStr"/>
       <c r="FH5" t="inlineStr"/>
       <c r="FI5" t="inlineStr"/>
+      <c r="FJ5" t="inlineStr"/>
+      <c r="FK5" t="inlineStr"/>
+      <c r="FL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2128,6 +2155,9 @@
       <c r="FG6" t="inlineStr"/>
       <c r="FH6" t="inlineStr"/>
       <c r="FI6" t="inlineStr"/>
+      <c r="FJ6" t="inlineStr"/>
+      <c r="FK6" t="inlineStr"/>
+      <c r="FL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2301,6 +2331,9 @@
       <c r="FG7" t="inlineStr"/>
       <c r="FH7" t="inlineStr"/>
       <c r="FI7" t="inlineStr"/>
+      <c r="FJ7" t="inlineStr"/>
+      <c r="FK7" t="inlineStr"/>
+      <c r="FL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2474,6 +2507,9 @@
       <c r="FG8" t="inlineStr"/>
       <c r="FH8" t="inlineStr"/>
       <c r="FI8" t="inlineStr"/>
+      <c r="FJ8" t="inlineStr"/>
+      <c r="FK8" t="inlineStr"/>
+      <c r="FL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2647,6 +2683,9 @@
       <c r="FG9" t="inlineStr"/>
       <c r="FH9" t="inlineStr"/>
       <c r="FI9" t="inlineStr"/>
+      <c r="FJ9" t="inlineStr"/>
+      <c r="FK9" t="inlineStr"/>
+      <c r="FL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2820,6 +2859,9 @@
       <c r="FG10" t="inlineStr"/>
       <c r="FH10" t="inlineStr"/>
       <c r="FI10" t="inlineStr"/>
+      <c r="FJ10" t="inlineStr"/>
+      <c r="FK10" t="inlineStr"/>
+      <c r="FL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2995,6 +3037,9 @@
       <c r="FG11" t="inlineStr"/>
       <c r="FH11" t="inlineStr"/>
       <c r="FI11" t="inlineStr"/>
+      <c r="FJ11" t="inlineStr"/>
+      <c r="FK11" t="inlineStr"/>
+      <c r="FL11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FL11"/>
+  <dimension ref="A1:FO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,15 +1265,30 @@
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').54</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').54</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').54</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1454,6 +1469,9 @@
       <c r="FJ2" t="inlineStr"/>
       <c r="FK2" t="inlineStr"/>
       <c r="FL2" t="inlineStr"/>
+      <c r="FM2" t="inlineStr"/>
+      <c r="FN2" t="inlineStr"/>
+      <c r="FO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1630,6 +1648,9 @@
       <c r="FJ3" t="inlineStr"/>
       <c r="FK3" t="inlineStr"/>
       <c r="FL3" t="inlineStr"/>
+      <c r="FM3" t="inlineStr"/>
+      <c r="FN3" t="inlineStr"/>
+      <c r="FO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1806,6 +1827,9 @@
       <c r="FJ4" t="inlineStr"/>
       <c r="FK4" t="inlineStr"/>
       <c r="FL4" t="inlineStr"/>
+      <c r="FM4" t="inlineStr"/>
+      <c r="FN4" t="inlineStr"/>
+      <c r="FO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1982,6 +2006,9 @@
       <c r="FJ5" t="inlineStr"/>
       <c r="FK5" t="inlineStr"/>
       <c r="FL5" t="inlineStr"/>
+      <c r="FM5" t="inlineStr"/>
+      <c r="FN5" t="inlineStr"/>
+      <c r="FO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2158,6 +2185,9 @@
       <c r="FJ6" t="inlineStr"/>
       <c r="FK6" t="inlineStr"/>
       <c r="FL6" t="inlineStr"/>
+      <c r="FM6" t="inlineStr"/>
+      <c r="FN6" t="inlineStr"/>
+      <c r="FO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2334,6 +2364,9 @@
       <c r="FJ7" t="inlineStr"/>
       <c r="FK7" t="inlineStr"/>
       <c r="FL7" t="inlineStr"/>
+      <c r="FM7" t="inlineStr"/>
+      <c r="FN7" t="inlineStr"/>
+      <c r="FO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2510,6 +2543,9 @@
       <c r="FJ8" t="inlineStr"/>
       <c r="FK8" t="inlineStr"/>
       <c r="FL8" t="inlineStr"/>
+      <c r="FM8" t="inlineStr"/>
+      <c r="FN8" t="inlineStr"/>
+      <c r="FO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2686,6 +2722,9 @@
       <c r="FJ9" t="inlineStr"/>
       <c r="FK9" t="inlineStr"/>
       <c r="FL9" t="inlineStr"/>
+      <c r="FM9" t="inlineStr"/>
+      <c r="FN9" t="inlineStr"/>
+      <c r="FO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2862,6 +2901,9 @@
       <c r="FJ10" t="inlineStr"/>
       <c r="FK10" t="inlineStr"/>
       <c r="FL10" t="inlineStr"/>
+      <c r="FM10" t="inlineStr"/>
+      <c r="FN10" t="inlineStr"/>
+      <c r="FO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -3040,6 +3082,9 @@
       <c r="FJ11" t="inlineStr"/>
       <c r="FK11" t="inlineStr"/>
       <c r="FL11" t="inlineStr"/>
+      <c r="FM11" t="inlineStr"/>
+      <c r="FN11" t="inlineStr"/>
+      <c r="FO11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_prices.xlsx
+++ b/stock_prices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FO11"/>
+  <dimension ref="A1:FR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,15 +1280,30 @@
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
+          <t>('Date', '').55</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>('Open', 'NVDA').55</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>('Close', 'NVDA').55</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
           <t>('Date', '')</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>('Open', 'NVDA')</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>('Close', 'NVDA')</t>
         </is>
@@ -1472,6 +1487,9 @@
       <c r="FM2" t="inlineStr"/>
       <c r="FN2" t="inlineStr"/>
       <c r="FO2" t="inlineStr"/>
+      <c r="FP2" t="inlineStr"/>
+      <c r="FQ2" t="inlineStr"/>
+      <c r="FR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1651,6 +1669,9 @@
       <c r="FM3" t="inlineStr"/>
       <c r="FN3" t="inlineStr"/>
       <c r="FO3" t="inlineStr"/>
+      <c r="FP3" t="inlineStr"/>
+      <c r="FQ3" t="inlineStr"/>
+      <c r="FR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1830,6 +1851,9 @@
       <c r="FM4" t="inlineStr"/>
       <c r="FN4" t="inlineStr"/>
       <c r="FO4" t="inlineStr"/>
+      <c r="FP4" t="inlineStr"/>
+      <c r="FQ4" t="inlineStr"/>
+      <c r="FR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2009,6 +2033,9 @@
       <c r="FM5" t="inlineStr"/>
       <c r="FN5" t="inlineStr"/>
       <c r="FO5" t="inlineStr"/>
+      <c r="FP5" t="inlineStr"/>
+      <c r="FQ5" t="inlineStr"/>
+      <c r="FR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2188,6 +2215,9 @@
       <c r="FM6" t="inlineStr"/>
       <c r="FN6" t="inlineStr"/>
       <c r="FO6" t="inlineStr"/>
+      <c r="FP6" t="inlineStr"/>
+      <c r="FQ6" t="inlineStr"/>
+      <c r="FR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2367,6 +2397,9 @@
       <c r="FM7" t="inlineStr"/>
       <c r="FN7" t="inlineStr"/>
       <c r="FO7" t="inlineStr"/>
+      <c r="FP7" t="inlineStr"/>
+      <c r="FQ7" t="inlineStr"/>
+      <c r="FR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2546,6 +2579,9 @@
       <c r="FM8" t="inlineStr"/>
       <c r="FN8" t="inlineStr"/>
       <c r="FO8" t="inlineStr"/>
+      <c r="FP8" t="inlineStr"/>
+      <c r="FQ8" t="inlineStr"/>
+      <c r="FR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2725,6 +2761,9 @@
       <c r="FM9" t="inlineStr"/>
       <c r="FN9" t="inlineStr"/>
       <c r="FO9" t="inlineStr"/>
+      <c r="FP9" t="inlineStr"/>
+      <c r="FQ9" t="inlineStr"/>
+      <c r="FR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2904,6 +2943,9 @@
       <c r="FM10" t="inlineStr"/>
       <c r="FN10" t="inlineStr"/>
       <c r="FO10" t="inlineStr"/>
+      <c r="FP10" t="inlineStr"/>
+      <c r="FQ10" t="inlineStr"/>
+      <c r="FR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -3085,6 +3127,9 @@
       <c r="FM11" t="inlineStr"/>
       <c r="FN11" t="inlineStr"/>
       <c r="FO11" t="inlineStr"/>
+      <c r="FP11" t="inlineStr"/>
+      <c r="FQ11" t="inlineStr"/>
+      <c r="FR11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
